--- a/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-010 Evaluacion de Auditores Internos UM.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-010 Evaluacion de Auditores Internos UM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SGC-FOR-10" sheetId="1" r:id="rId3"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>GESTIÓN DE LA CALIDAD</t>
   </si>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1190,7 +1190,7 @@
     <xdr:ext cx="1381125" cy="1076325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1218,7 +1218,7 @@
     <xdr:ext cx="1019175" cy="1000125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1340,9 +1340,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="36"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -2164,68 +2162,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:L13"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A49:L49"/>
     <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G1:H3"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A1:B3"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="A12:L13"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:H3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.984251968503937" footer="0.0" header="0.0" left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937"/>
